--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20402"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E5875E-255F-4484-BF29-CFC9DA428B76}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62515A6-186C-4CD8-83DA-02ED99296886}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
   <si>
     <t>Date</t>
   </si>
@@ -146,10 +146,13 @@
     <t>198-2=196</t>
   </si>
   <si>
-    <t>JS-31-17</t>
-  </si>
-  <si>
     <t>196-3=193</t>
+  </si>
+  <si>
+    <t>JS-31-19</t>
+  </si>
+  <si>
+    <t>193-2=191</t>
   </si>
 </sst>
 </file>
@@ -647,8 +650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -858,7 +861,7 @@
         <v>3</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
         <v>5</v>
@@ -872,10 +875,10 @@
         <v>4</v>
       </c>
       <c r="C13" s="6">
-        <v>0</v>
-      </c>
-      <c r="D13" s="6">
-        <v>184</v>
+        <v>2</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="F13" t="s">
         <v>31</v>
@@ -1042,7 +1045,7 @@
         <v>144</v>
       </c>
       <c r="F23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20403"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62515A6-186C-4CD8-83DA-02ED99296886}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E2EF72C-D1C2-47B0-B1D5-990B958D9D27}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
   <si>
     <t>Date</t>
   </si>
@@ -149,10 +149,13 @@
     <t>196-3=193</t>
   </si>
   <si>
-    <t>JS-31-19</t>
-  </si>
-  <si>
     <t>193-2=191</t>
+  </si>
+  <si>
+    <t>JS-31-21</t>
+  </si>
+  <si>
+    <t>191-2=189</t>
   </si>
 </sst>
 </file>
@@ -651,7 +654,7 @@
   <dimension ref="A1:N59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -878,7 +881,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
         <v>31</v>
@@ -892,10 +895,10 @@
         <v>4</v>
       </c>
       <c r="C14" s="6">
-        <v>0</v>
-      </c>
-      <c r="D14" s="6">
-        <v>180</v>
+        <v>2</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1045,7 +1048,7 @@
         <v>144</v>
       </c>
       <c r="F23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20403"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E2EF72C-D1C2-47B0-B1D5-990B958D9D27}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
   <si>
     <t>Date</t>
   </si>
@@ -137,9 +136,6 @@
     <t>202-3=199</t>
   </si>
   <si>
-    <t>OOP-1 65-65, Rewise=58to65</t>
-  </si>
-  <si>
     <t>199-1=198</t>
   </si>
   <si>
@@ -156,12 +152,18 @@
   </si>
   <si>
     <t>191-2=189</t>
+  </si>
+  <si>
+    <t>OOP-1 65-65, Rewise=59to65</t>
+  </si>
+  <si>
+    <t>189-1=188</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -373,7 +375,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -406,26 +408,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -458,23 +443,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -650,11 +618,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -720,7 +688,7 @@
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -833,7 +801,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -847,7 +815,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F11" t="s">
         <v>21</v>
@@ -864,7 +832,7 @@
         <v>3</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F12" t="s">
         <v>5</v>
@@ -881,7 +849,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
         <v>31</v>
@@ -898,7 +866,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -909,10 +877,10 @@
         <v>4</v>
       </c>
       <c r="C15" s="6">
-        <v>0</v>
-      </c>
-      <c r="D15" s="6">
-        <v>176</v>
+        <v>1</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="F15" t="s">
         <v>6</v>
@@ -1048,7 +1016,7 @@
         <v>144</v>
       </c>
       <c r="F23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20403"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F885E19A-C1A6-48CF-9B9C-D3D3373F452B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -148,22 +149,22 @@
     <t>193-2=191</t>
   </si>
   <si>
-    <t>JS-31-21</t>
-  </si>
-  <si>
     <t>191-2=189</t>
   </si>
   <si>
     <t>OOP-1 65-65, Rewise=59to65</t>
   </si>
   <si>
-    <t>189-1=188</t>
+    <t>JS-31-22</t>
+  </si>
+  <si>
+    <t>189-2=187</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -375,7 +376,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -408,9 +409,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -443,6 +461,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -618,11 +653,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,7 +723,7 @@
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -866,7 +901,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -877,7 +912,7 @@
         <v>4</v>
       </c>
       <c r="C15" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>47</v>
@@ -1016,7 +1051,7 @@
         <v>144</v>
       </c>
       <c r="F23" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20403"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F885E19A-C1A6-48CF-9B9C-D3D3373F452B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA86191E-25C1-48E3-A239-C0D3EF3F5CAC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
   <si>
     <t>Date</t>
   </si>
@@ -155,10 +155,13 @@
     <t>OOP-1 65-65, Rewise=59to65</t>
   </si>
   <si>
-    <t>JS-31-22</t>
-  </si>
-  <si>
     <t>189-2=187</t>
+  </si>
+  <si>
+    <t>JS-31-25</t>
+  </si>
+  <si>
+    <t>187-3=184</t>
   </si>
 </sst>
 </file>
@@ -656,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -915,7 +918,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F15" t="s">
         <v>6</v>
@@ -929,10 +932,10 @@
         <v>4</v>
       </c>
       <c r="C16" s="6">
-        <v>0</v>
-      </c>
-      <c r="D16" s="6">
-        <v>172</v>
+        <v>3</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="F16" t="s">
         <v>7</v>
@@ -1051,7 +1054,7 @@
         <v>144</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">

--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20403"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA86191E-25C1-48E3-A239-C0D3EF3F5CAC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2814765A-6B06-4BC0-A08B-DE4E4AB67D10}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
   <si>
     <t>Date</t>
   </si>
@@ -158,10 +158,16 @@
     <t>189-2=187</t>
   </si>
   <si>
-    <t>JS-31-25</t>
-  </si>
-  <si>
     <t>187-3=184</t>
+  </si>
+  <si>
+    <t>184-1=183</t>
+  </si>
+  <si>
+    <t>JS-31-27</t>
+  </si>
+  <si>
+    <t>183-1=182</t>
   </si>
 </sst>
 </file>
@@ -659,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -935,7 +941,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F16" t="s">
         <v>7</v>
@@ -949,10 +955,10 @@
         <v>4</v>
       </c>
       <c r="C17" s="6">
-        <v>0</v>
-      </c>
-      <c r="D17" s="6">
-        <v>168</v>
+        <v>1</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="F17" t="s">
         <v>8</v>
@@ -966,10 +972,10 @@
         <v>4</v>
       </c>
       <c r="C18" s="6">
-        <v>0</v>
-      </c>
-      <c r="D18" s="6">
-        <v>164</v>
+        <v>1</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1054,7 +1060,7 @@
         <v>144</v>
       </c>
       <c r="F23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
